--- a/progetti-per-test/Progetto-Complesso-V2/confronto-pratiche.xlsx
+++ b/progetti-per-test/Progetto-Complesso-V2/confronto-pratiche.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-Aggiornato\progetti-per-test\Progetto-Complesso-V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-aggiornato\progetti-per-test\Progetto-Complesso-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -975,7 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
@@ -1078,14 +1080,14 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>15.789473684210526</v>
+        <v>5.2631578947368416</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1231,14 +1233,14 @@
         <v>29</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>15.789473684210526</v>
+        <v>5.2631578947368416</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1362,7 +1364,7 @@
       </c>
       <c r="B20" s="1">
         <f>SUM(E4:E9)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(F4:F9)</f>
@@ -1370,7 +1372,7 @@
       </c>
       <c r="D20" s="1">
         <f>SUM(B20,C20)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1388,7 +1390,7 @@
       </c>
       <c r="B21" s="1">
         <f>SUM(E11:E16)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <f>SUM(F11:F16)</f>
@@ -1396,7 +1398,7 @@
       </c>
       <c r="D21" s="1">
         <f>SUM(B21,C21)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>

--- a/progetti-per-test/Progetto-Complesso-V2/confronto-pratiche.xlsx
+++ b/progetti-per-test/Progetto-Complesso-V2/confronto-pratiche.xlsx
@@ -976,7 +976,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1077,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
